--- a/increment.xlsx
+++ b/increment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/increment.xlsx
+++ b/increment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,131 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
